--- a/04_outputs/country_report.xlsx
+++ b/04_outputs/country_report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">geoname</t>
   </si>
@@ -27,57 +27,6 @@
   </si>
   <si>
     <t xml:space="preserve">Burkina Faso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2008 , Burkina Faso experienced a NA in peacefulness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2009 , Burkina Faso experienced a decrease in peacefulness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2010 , Burkina Faso experienced a decrease in peacefulness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2011 , Burkina Faso experienced a decrease in peacefulness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2012 , Burkina Faso experienced a decrease in peacefulness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2013 , Burkina Faso experienced a decrease in peacefulness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2014 , Burkina Faso experienced a decrease in peacefulness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2015 , Burkina Faso experienced a decrease in peacefulness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2016 , Burkina Faso experienced a decrease in peacefulness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2017 , Burkina Faso experienced a decrease in peacefulness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2018 , Burkina Faso experienced a decrease in peacefulness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2019 , Burkina Faso experienced a decrease in peacefulness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2020 , Burkina Faso experienced a decrease in peacefulness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2021 , Burkina Faso experienced a decrease in peacefulness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2022 , Burkina Faso experienced a decrease in peacefulness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2023 , Burkina Faso experienced a decrease in peacefulness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2023 , Burkina Faso experienced a increase in peacefulness</t>
   </si>
 </sst>
 </file>
@@ -411,7 +360,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -435,86 +384,6 @@
       </c>
       <c r="D2" t="n">
         <v>3.603</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/04_outputs/country_report.xlsx
+++ b/04_outputs/country_report.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t xml:space="preserve">geoname</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t xml:space="preserve">geocode</t>
   </si>
   <si>
     <t xml:space="preserve">GPI</t>
@@ -26,7 +26,10 @@
     <t xml:space="preserve">PPI</t>
   </si>
   <si>
-    <t xml:space="preserve">Burkina Faso</t>
+    <t xml:space="preserve">ETR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFA</t>
   </si>
 </sst>
 </file>
@@ -371,10 +374,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>2.868</v>
@@ -384,6 +390,9 @@
       </c>
       <c r="D2" t="n">
         <v>3.603</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/04_outputs/country_report.xlsx
+++ b/04_outputs/country_report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">geocode</t>
   </si>
@@ -30,6 +30,12 @@
   </si>
   <si>
     <t xml:space="preserve">BFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2023 , Burkina Faso had an overall score of 3 in the GLOABL PEACE INDEX. This represents a deterioration from the previous year. It is currently ranked 7 th in the region. This was driven by a deterioration in the safety and security domain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2022 , Burkina Faso had an overall score of 4 in the POSITIVE PEACE REPORT. This represents a deterioration from the previous year. It is currently ranked 17 th in the region. This was driven by a deterioration in the Well-Functioning Government Pillar.</t>
   </si>
 </sst>
 </file>
@@ -395,6 +401,16 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/04_outputs/country_report.xlsx
+++ b/04_outputs/country_report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">geocode</t>
   </si>
@@ -36,6 +36,18 @@
   </si>
   <si>
     <t xml:space="preserve">In 2022 , Burkina Faso had an overall score of 4 in the POSITIVE PEACE REPORT. This represents a deterioration from the previous year. It is currently ranked 17 th in the region. This was driven by a deterioration in the Well-Functioning Government Pillar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">According to the latest edition of the Ecological Threat Report Burkina Faso had a demographic pressure score of 5 . This means that Burkina Faso is at Severe risk of population increases by 2050. Burkina Faso also has a Severe Risk of water insecurity, having a score of 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">According to the latest edition of the Ecological Threat Report Burkina Faso had a demographic pressure score of 5 . This means that Burkina Faso is at Severe risk of population increases by 2050. Burkina Faso also has a Severe risk of water insecurity, having a maximum score of 5 Burkina Faso has a maximum food insecurity score of 5 . This means the country is in Severe risk of Food insecurity. Lastly Burkina Faso has a natural hazard exposure score of 4 . This means the country is at High risk of natural hazard exposure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">According to the latest edition of the Ecological Threat Report, Burkina Faso had a demographic pressure score of 5 . This means that Burkina Faso is at severe risk of population increases by 2050. Burkina Faso is also at severe risk of water insecurity, having a maximum score of 5 . Burkina Faso has a maximum food insecurity score of 5 . This means the country is in severe risk of food insecurity. Lastly, Burkina Faso has a maximum natural hazard exposure score of 4 . This means the country is at high risk of natural hazard exposure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2023 , Burkina Faso had an overall score of 3 in the GLOABL PEACE INDEX. This represents a deterioration from the previous year. It is currently ranked 38 th in the region. This was driven by a deterioration in the safety and security domain.</t>
   </si>
 </sst>
 </file>
@@ -403,12 +415,17 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/04_outputs/country_report.xlsx
+++ b/04_outputs/country_report.xlsx
@@ -12,18 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">geocode</t>
   </si>
   <si>
-    <t xml:space="preserve">GPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPI</t>
+    <t xml:space="preserve">GPI Rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTI Rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPI Rank</t>
   </si>
   <si>
     <t xml:space="preserve">ETR</t>
@@ -32,22 +32,13 @@
     <t xml:space="preserve">BFA</t>
   </si>
   <si>
-    <t xml:space="preserve">In 2023 , Burkina Faso had an overall score of 3 in the GLOABL PEACE INDEX. This represents a deterioration from the previous year. It is currently ranked 7 th in the region. This was driven by a deterioration in the safety and security domain.</t>
+    <t xml:space="preserve">In 2023 , Burkina Faso had an overall score of 3 in the GLOBAL PEACE INDEX. This represents a deterioration from the previous year. It is currently ranked 38 th in the region. This was driven by a deterioration in the safety and security change domian</t>
   </si>
   <si>
     <t xml:space="preserve">In 2022 , Burkina Faso had an overall score of 4 in the POSITIVE PEACE REPORT. This represents a deterioration from the previous year. It is currently ranked 17 th in the region. This was driven by a deterioration in the Well-Functioning Government Pillar.</t>
   </si>
   <si>
-    <t xml:space="preserve">According to the latest edition of the Ecological Threat Report Burkina Faso had a demographic pressure score of 5 . This means that Burkina Faso is at Severe risk of population increases by 2050. Burkina Faso also has a Severe Risk of water insecurity, having a score of 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">According to the latest edition of the Ecological Threat Report Burkina Faso had a demographic pressure score of 5 . This means that Burkina Faso is at Severe risk of population increases by 2050. Burkina Faso also has a Severe risk of water insecurity, having a maximum score of 5 Burkina Faso has a maximum food insecurity score of 5 . This means the country is in Severe risk of Food insecurity. Lastly Burkina Faso has a natural hazard exposure score of 4 . This means the country is at High risk of natural hazard exposure.</t>
-  </si>
-  <si>
     <t xml:space="preserve">According to the latest edition of the Ecological Threat Report, Burkina Faso had a demographic pressure score of 5 . This means that Burkina Faso is at severe risk of population increases by 2050. Burkina Faso is also at severe risk of water insecurity, having a maximum score of 5 . Burkina Faso has a maximum food insecurity score of 5 . This means the country is in severe risk of food insecurity. Lastly, Burkina Faso has a maximum natural hazard exposure score of 4 . This means the country is at high risk of natural hazard exposure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2023 , Burkina Faso had an overall score of 3 in the GLOABL PEACE INDEX. This represents a deterioration from the previous year. It is currently ranked 38 th in the region. This was driven by a deterioration in the safety and security domain.</t>
   </si>
 </sst>
 </file>
@@ -401,13 +392,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>2.868</v>
+        <v>150</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3.603</v>
+        <v>115</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -415,7 +406,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -425,7 +416,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/04_outputs/country_report.xlsx
+++ b/04_outputs/country_report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">geocode</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t xml:space="preserve">According to the latest edition of the Ecological Threat Report, Burkina Faso had a demographic pressure score of 5 . This means that Burkina Faso is at severe risk of population increases by 2050. Burkina Faso is also at severe risk of water insecurity, having a maximum score of 5 . Burkina Faso has a maximum food insecurity score of 5 . This means the country is in severe risk of food insecurity. Lastly, Burkina Faso has a maximum natural hazard exposure score of 4 . This means the country is at high risk of natural hazard exposure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2023 , Burkina Faso had an overall score of 3 in the GLOBAL PEACE INDEX. This represents a deterioration from the previous year. It is currently ranked 38 th in the region. This was driven by a deterioration in the safety and security domian</t>
   </si>
 </sst>
 </file>
@@ -406,7 +409,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">

--- a/04_outputs/country_report.xlsx
+++ b/04_outputs/country_report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">geocode</t>
   </si>
@@ -29,19 +29,16 @@
     <t xml:space="preserve">ETR</t>
   </si>
   <si>
-    <t xml:space="preserve">BFA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2023 , Burkina Faso had an overall score of 3 in the GLOBAL PEACE INDEX. This represents a deterioration from the previous year. It is currently ranked 38 th in the region. This was driven by a deterioration in the safety and security change domian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2022 , Burkina Faso had an overall score of 4 in the POSITIVE PEACE REPORT. This represents a deterioration from the previous year. It is currently ranked 17 th in the region. This was driven by a deterioration in the Well-Functioning Government Pillar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">According to the latest edition of the Ecological Threat Report, Burkina Faso had a demographic pressure score of 5 . This means that Burkina Faso is at severe risk of population increases by 2050. Burkina Faso is also at severe risk of water insecurity, having a maximum score of 5 . Burkina Faso has a maximum food insecurity score of 5 . This means the country is in severe risk of food insecurity. Lastly, Burkina Faso has a maximum natural hazard exposure score of 4 . This means the country is at high risk of natural hazard exposure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2023 , Burkina Faso had an overall score of 3 in the GLOBAL PEACE INDEX. This represents a deterioration from the previous year. It is currently ranked 38 th in the region. This was driven by a deterioration in the safety and security domian</t>
+    <t xml:space="preserve">IRQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2023 , Iraq had an overall score of 3 in the GLOBAL PEACE INDEX. This represents an improvement from the previous year. It is currently ranked 17 th in the region. This was driven by an improvement in the militarisation domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2022 , Iraq had an overall score of 4 in the POSITIVE PEACE REPORT. This represents an improvement from the previous year. It is currently ranked 17 th in the region. This was driven by an improvement in the Good Relations with Neighbours Pillar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">According to the latest edition of the Ecological Threat Report, Iraq had a demographic pressure score of 5 . This means that Iraq is at severe risk of population increases by 2050. Iraq is also at severe risk of water insecurity, having a maximum score of 5 . Iraq has a maximum food insecurity score of 4 . This means the country is in high risk of food insecurity. Lastly, Iraq has a maximum natural hazard exposure score of 3 . This means the country is at medium risk of natural hazard exposure.</t>
   </si>
 </sst>
 </file>
@@ -395,13 +392,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -409,7 +406,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">

--- a/04_outputs/country_report.xlsx
+++ b/04_outputs/country_report.xlsx
@@ -29,16 +29,16 @@
     <t xml:space="preserve">ETR</t>
   </si>
   <si>
-    <t xml:space="preserve">IRQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2023 , Iraq had an overall score of 3 in the GLOBAL PEACE INDEX. This represents an improvement from the previous year. It is currently ranked 17 th in the region. This was driven by an improvement in the militarisation domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2022 , Iraq had an overall score of 4 in the POSITIVE PEACE REPORT. This represents an improvement from the previous year. It is currently ranked 17 th in the region. This was driven by an improvement in the Good Relations with Neighbours Pillar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">According to the latest edition of the Ecological Threat Report, Iraq had a demographic pressure score of 5 . This means that Iraq is at severe risk of population increases by 2050. Iraq is also at severe risk of water insecurity, having a maximum score of 5 . Iraq has a maximum food insecurity score of 4 . This means the country is in high risk of food insecurity. Lastly, Iraq has a maximum natural hazard exposure score of 3 . This means the country is at medium risk of natural hazard exposure.</t>
+    <t xml:space="preserve">BFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2023 , Burkina Faso had an overall score of 3 in the GLOBAL PEACE INDEX. This represents a deterioration from the previous year. It is currently ranked 38 th in the region. This was driven by a deterioration in the safety and security domian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2022 , Burkina Faso had an overall score of 4 in the POSITIVE PEACE REPORT. This represents a deterioration from the previous year. It is currently ranked 17 th in the region. This was driven by a deterioration in the Well-Functioning Government Pillar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">According to the latest edition of the Ecological Threat Report, Burkina Faso had a demographic pressure score of 5 . This means that Burkina Faso is at severe risk of population increases by 2050. Burkina Faso is also at severe risk of water insecurity, having a maximum score of 5 . Burkina Faso has a maximum food insecurity score of 5 . This means the country is in severe risk of food insecurity. Lastly, Burkina Faso has a maximum natural hazard exposure score of 4 . This means the country is at high risk of natural hazard exposure.</t>
   </si>
 </sst>
 </file>
@@ -392,13 +392,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>

--- a/04_outputs/country_report.xlsx
+++ b/04_outputs/country_report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">geocode</t>
   </si>
@@ -32,13 +32,25 @@
     <t xml:space="preserve">BFA</t>
   </si>
   <si>
-    <t xml:space="preserve">In 2023 , Burkina Faso had an overall score of 3 in the GLOBAL PEACE INDEX. This represents a deterioration from the previous year. It is currently ranked 38 th in the region. This was driven by a deterioration in the safety and security domian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2022 , Burkina Faso had an overall score of 4 in the POSITIVE PEACE REPORT. This represents a deterioration from the previous year. It is currently ranked 17 th in the region. This was driven by a deterioration in the Well-Functioning Government Pillar.</t>
+    <t xml:space="preserve">In 2023 , Burkina Faso had an overall score of 3 in the GLOBAL PEACE INDEX. This represents a deterioration from the previous year. It is currently ranked 38 th in the region. This was driven by a deterioration in the safety and security domian. In the last five years, Burkina Faso , has seen an overall deterioration in Global Peace.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2022 , Burkina Faso had an overall score of 4 in the POSITIVE PEACE REPORT. This represents a deterioration from the previous year. It is currently ranked 17 th in the region. This was driven by a deterioration in the Well-Functioning Government Pillar. In the last five years Burkina Faso has seen an overall deterioration in Positive Peace.</t>
   </si>
   <si>
     <t xml:space="preserve">According to the latest edition of the Ecological Threat Report, Burkina Faso had a demographic pressure score of 5 . This means that Burkina Faso is at severe risk of population increases by 2050. Burkina Faso is also at severe risk of water insecurity, having a maximum score of 5 . Burkina Faso has a maximum food insecurity score of 5 . This means the country is in severe risk of food insecurity. Lastly, Burkina Faso has a maximum natural hazard exposure score of 4 . This means the country is at high risk of natural hazard exposure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Hazard Exposure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demographic Pressure</t>
   </si>
 </sst>
 </file>
@@ -419,6 +431,38 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/04_outputs/country_report.xlsx
+++ b/04_outputs/country_report.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
         <v>5</v>

--- a/04_outputs/country_report.xlsx
+++ b/04_outputs/country_report.xlsx
@@ -398,6 +398,24 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="n">
+        <v>732.57</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="n">
+        <v>31.877</v>
+      </c>
+      <c r="T1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" t="n">
+        <v>22673762</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -461,6 +479,26 @@
       </c>
       <c r="B13" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>732.57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>31.877</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>22673762</v>
       </c>
     </row>
   </sheetData>

--- a/04_outputs/country_report.xlsx
+++ b/04_outputs/country_report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">geocode</t>
   </si>
@@ -51,6 +51,21 @@
   </si>
   <si>
     <t xml:space="preserve">Demographic Pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country Stats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GDP Per Capita Constant 2010 US$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urbanization Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population</t>
   </si>
 </sst>
 </file>
@@ -95,6 +110,16 @@
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A18:B21" totalsRowCount="0" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Country Stats"/>
+    <tableColumn id="2" name="Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,24 +423,6 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" t="n">
-        <v>732.57</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" t="n">
-        <v>31.877</v>
-      </c>
-      <c r="T1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" t="n">
-        <v>22673762</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -481,28 +488,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
+    <row r="18">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="n">
         <v>732.57</v>
       </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="n">
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="n">
         <v>31.877</v>
       </c>
-      <c r="G14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" t="n">
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="n">
         <v>22673762</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/04_outputs/country_report.xlsx
+++ b/04_outputs/country_report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">geocode</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t xml:space="preserve">According to the latest edition of the Ecological Threat Report, Burkina Faso had a demographic pressure score of 5 . This means that Burkina Faso is at severe risk of population increases by 2050. Burkina Faso is also at severe risk of water insecurity, having a maximum score of 5 . Burkina Faso has a maximum food insecurity score of 5 . This means the country is in severe risk of food insecurity. Lastly, Burkina Faso has a maximum natural hazard exposure score of 4 . This means the country is at high risk of natural hazard exposure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETR Domains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETR Score out of 5</t>
   </si>
   <si>
     <t xml:space="preserve">Food Security</t>
@@ -113,7 +119,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A18:B21" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A10:B14" totalsRowCount="0" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="ETR Domains"/>
+    <tableColumn id="2" name="ETR Score out of 5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A18:B21" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Country Stats"/>
     <tableColumn id="2" name="Value"/>
@@ -465,8 +481,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -474,31 +490,39 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
         <v>12</v>
       </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13" t="n">
         <v>5</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+    </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
         <v>732.57</v>
@@ -506,7 +530,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
         <v>31.877</v>
@@ -514,7 +538,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
         <v>22673762</v>
@@ -523,8 +547,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/04_outputs/country_report.xlsx
+++ b/04_outputs/country_report.xlsx
@@ -29,16 +29,16 @@
     <t xml:space="preserve">ETR</t>
   </si>
   <si>
-    <t xml:space="preserve">BFA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2023 , Burkina Faso had an overall score of 3 in the GLOBAL PEACE INDEX. This represents a deterioration from the previous year. It is currently ranked 38 th in the region. This was driven by a deterioration in the safety and security domian. In the last five years, Burkina Faso , has seen an overall deterioration in Global Peace.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2022 , Burkina Faso had an overall score of 4 in the POSITIVE PEACE REPORT. This represents a deterioration from the previous year. It is currently ranked 17 th in the region. This was driven by a deterioration in the Well-Functioning Government Pillar. In the last five years Burkina Faso has seen an overall deterioration in Positive Peace.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">According to the latest edition of the Ecological Threat Report, Burkina Faso had a demographic pressure score of 5 . This means that Burkina Faso is at severe risk of population increases by 2050. Burkina Faso is also at severe risk of water insecurity, having a maximum score of 5 . Burkina Faso has a maximum food insecurity score of 5 . This means the country is in severe risk of food insecurity. Lastly, Burkina Faso has a maximum natural hazard exposure score of 4 . This means the country is at high risk of natural hazard exposure.</t>
+    <t xml:space="preserve">PAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2023 , Pakistan had an overall score of 3 in the GLOBAL PEACE INDEX. This represents an improvement from the previous year. It is currently ranked 6 th in the region. This was driven by an improvement in the ongoing conflict domain. In the last five years Pakistan , has seen an overall improvement in Global Peace.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2022 , Pakistan had an overall score of 4 in the POSITIVE PEACE REPORT. This represents an improvement from the previous year. It is currently ranked 6 th in the region. This was driven by an improvement in the Free Flow of Information Pillar. In the last five years Pakistan has seen an overall improvement in Positive Peace.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">According to the latest edition of the Ecological Threat Report, Pakistan had a demographic pressure score of 4 . This means that Pakistan is at high risk of population increases by 2050. Pakistan is also at high risk of water insecurity, having a maximum score of 4 . Pakistan has a maximum food insecurity score of 5 . This means the country is in severe risk of food insecurity. Lastly, Pakistan has a maximum natural hazard exposure score of 4 . This means the country is at high risk of natural hazard exposure.</t>
   </si>
   <si>
     <t xml:space="preserve">ETR Domains</t>
@@ -445,16 +445,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -493,7 +493,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -509,7 +509,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -525,7 +525,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>732.57</v>
+        <v>1695.96</v>
       </c>
     </row>
     <row r="20">
@@ -533,7 +533,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>31.877</v>
+        <v>37.731</v>
       </c>
     </row>
     <row r="21">
@@ -541,7 +541,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>22673762</v>
+        <v>235824860</v>
       </c>
     </row>
   </sheetData>

--- a/04_outputs/country_report.xlsx
+++ b/04_outputs/country_report.xlsx
@@ -29,16 +29,16 @@
     <t xml:space="preserve">ETR</t>
   </si>
   <si>
-    <t xml:space="preserve">PAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2023 , Pakistan had an overall score of 3 in the GLOBAL PEACE INDEX. This represents an improvement from the previous year. It is currently ranked 6 th in the region. This was driven by an improvement in the ongoing conflict domain. In the last five years Pakistan , has seen an overall improvement in Global Peace.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2022 , Pakistan had an overall score of 4 in the POSITIVE PEACE REPORT. This represents an improvement from the previous year. It is currently ranked 6 th in the region. This was driven by an improvement in the Free Flow of Information Pillar. In the last five years Pakistan has seen an overall improvement in Positive Peace.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">According to the latest edition of the Ecological Threat Report, Pakistan had a demographic pressure score of 4 . This means that Pakistan is at high risk of population increases by 2050. Pakistan is also at high risk of water insecurity, having a maximum score of 4 . Pakistan has a maximum food insecurity score of 5 . This means the country is in severe risk of food insecurity. Lastly, Pakistan has a maximum natural hazard exposure score of 4 . This means the country is at high risk of natural hazard exposure.</t>
+    <t xml:space="preserve">BFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2023 , Burkina Faso had an overall score of 3 in the GLOBAL PEACE INDEX. This represents a deterioration from the previous year. It is currently ranked 38 th in the region. This was driven by a deterioration in the safety and security domian. In the last five years, Burkina Faso , has seen an overall deterioration in Global Peace.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2022 , Burkina Faso had an overall score of 4 in the POSITIVE PEACE REPORT. This represents a deterioration from the previous year. It is currently ranked 17 th in the region. This was driven by a deterioration in the Well-Functioning Government Pillar. In the last five years Burkina Faso has seen an overall deterioration in Positive Peace.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">According to the latest edition of the Ecological Threat Report, Burkina Faso had a demographic pressure score of 5 . This means that Burkina Faso is at severe risk of population increases by 2050. Burkina Faso is also at severe risk of water insecurity, having a maximum score of 5 . Burkina Faso has a maximum food insecurity score of 5 . This means the country is in severe risk of food insecurity. Lastly, Burkina Faso has a maximum natural hazard exposure score of 4 . This means the country is at high risk of natural hazard exposure.</t>
   </si>
   <si>
     <t xml:space="preserve">ETR Domains</t>
@@ -445,16 +445,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -493,7 +493,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -509,7 +509,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -525,7 +525,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1695.96</v>
+        <v>732.57</v>
       </c>
     </row>
     <row r="20">
@@ -533,7 +533,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>37.731</v>
+        <v>31.877</v>
       </c>
     </row>
     <row r="21">
@@ -541,7 +541,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>235824860</v>
+        <v>22673762</v>
       </c>
     </row>
   </sheetData>

--- a/04_outputs/country_report.xlsx
+++ b/04_outputs/country_report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">geocode</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t xml:space="preserve">BFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Risk</t>
   </si>
   <si>
     <t xml:space="preserve">In 2023 , Burkina Faso had an overall score of 3 in the GLOBAL PEACE INDEX. This represents a deterioration from the previous year. It is currently ranked 38 th in the region. This was driven by a deterioration in the safety and security domian. In the last five years, Burkina Faso , has seen an overall deterioration in Global Peace.</t>
@@ -456,33 +459,36 @@
       <c r="E2" t="n">
         <v>5</v>
       </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -490,7 +496,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="n">
         <v>5</v>
@@ -498,7 +504,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="n">
         <v>5</v>
@@ -506,7 +512,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="n">
         <v>5</v>
@@ -514,15 +520,15 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="n">
         <v>732.57</v>
@@ -530,7 +536,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="n">
         <v>31.877</v>
@@ -538,7 +544,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="n">
         <v>22673762</v>

--- a/04_outputs/country_report.xlsx
+++ b/04_outputs/country_report.xlsx
@@ -29,19 +29,19 @@
     <t xml:space="preserve">ETR</t>
   </si>
   <si>
-    <t xml:space="preserve">BFA</t>
+    <t xml:space="preserve">NER</t>
   </si>
   <si>
     <t xml:space="preserve">High Risk</t>
   </si>
   <si>
-    <t xml:space="preserve">In 2023 , Burkina Faso had an overall score of 3 in the GLOBAL PEACE INDEX. This represents a deterioration from the previous year. It is currently ranked 38 th in the region. This was driven by a deterioration in the safety and security domian. In the last five years, Burkina Faso , has seen an overall deterioration in Global Peace.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2022 , Burkina Faso had an overall score of 4 in the POSITIVE PEACE REPORT. This represents a deterioration from the previous year. It is currently ranked 17 th in the region. This was driven by a deterioration in the Well-Functioning Government Pillar. In the last five years Burkina Faso has seen an overall deterioration in Positive Peace.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">According to the latest edition of the Ecological Threat Report, Burkina Faso had a demographic pressure score of 5 . This means that Burkina Faso is at severe risk of population increases by 2050. Burkina Faso is also at severe risk of water insecurity, having a maximum score of 5 . Burkina Faso has a maximum food insecurity score of 5 . This means the country is in severe risk of food insecurity. Lastly, Burkina Faso has a maximum natural hazard exposure score of 4 . This means the country is at high risk of natural hazard exposure.</t>
+    <t xml:space="preserve">In 2023 , Niger had an overall score of 3 in the GLOBAL PEACE INDEX. This represents an improvement from the previous year. It is currently ranked 34 th in the region. This was driven by an improvement in the militarisation domain. In the last five years Niger , has seen an overall deterioration in Global Peace.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2022 , Niger had an overall score of 4 in the POSITIVE PEACE REPORT. This represents a deterioration from the previous year. It is currently ranked 26 th in the region. This was driven by a deterioration in the Low Levels of Corruption Pillar. In the last five years Niger has seen an overall deterioration in Positive Peace.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">According to the latest edition of the Ecological Threat Report, Niger had a demographic pressure score of 5 . This means that Niger is at severe risk of population increases by 2050. Niger is also at severe risk of water insecurity, having a maximum score of 5 . Niger has a maximum food insecurity score of 5 . This means the country is in severe risk of food insecurity. Lastly, Niger has a maximum natural hazard exposure score of 5 . This means the country is at severe risk of natural hazard exposure.</t>
   </si>
   <si>
     <t xml:space="preserve">ETR Domains</t>
@@ -448,13 +448,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -531,7 +531,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>732.57</v>
+        <v>545.413</v>
       </c>
     </row>
     <row r="20">
@@ -539,7 +539,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>31.877</v>
+        <v>16.894</v>
       </c>
     </row>
     <row r="21">
@@ -547,7 +547,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>22673762</v>
+        <v>26207976</v>
       </c>
     </row>
   </sheetData>

--- a/04_outputs/country_report.xlsx
+++ b/04_outputs/country_report.xlsx
@@ -29,19 +29,19 @@
     <t xml:space="preserve">ETR</t>
   </si>
   <si>
-    <t xml:space="preserve">NER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High Risk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2023 , Niger had an overall score of 3 in the GLOBAL PEACE INDEX. This represents an improvement from the previous year. It is currently ranked 34 th in the region. This was driven by an improvement in the militarisation domain. In the last five years Niger , has seen an overall deterioration in Global Peace.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2022 , Niger had an overall score of 4 in the POSITIVE PEACE REPORT. This represents a deterioration from the previous year. It is currently ranked 26 th in the region. This was driven by a deterioration in the Low Levels of Corruption Pillar. In the last five years Niger has seen an overall deterioration in Positive Peace.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">According to the latest edition of the Ecological Threat Report, Niger had a demographic pressure score of 5 . This means that Niger is at severe risk of population increases by 2050. Niger is also at severe risk of water insecurity, having a maximum score of 5 . Niger has a maximum food insecurity score of 5 . This means the country is in severe risk of food insecurity. Lastly, Niger has a maximum natural hazard exposure score of 5 . This means the country is at severe risk of natural hazard exposure.</t>
+    <t xml:space="preserve">SOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very High Risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2023 , Somalia had an overall score of 3 in the GLOBAL PEACE INDEX. This represents an improvement from the previous year. It is currently ranked 42 th in the region. This was driven by an improvement in the ongoing conflict domain. In the last five years Somalia , has seen an overall improvement in Global Peace.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2022 , Somalia had an overall score of 4 in the POSITIVE PEACE REPORT. This represents a deterioration from the previous year. It is currently ranked 43 th in the region. This was driven by a deterioration in the Good Relations with Neighbours Pillar. In the last five years Somalia has seen an overall improvement in Positive Peace.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">According to the latest edition of the Ecological Threat Report, Somalia had a demographic pressure score of 5 . This means that Somalia is at severe risk of population increases by 2050. Somalia is also at severe risk of water insecurity, having a maximum score of 5 . Somalia has a maximum food insecurity score of 5 . This means the country is in severe risk of food insecurity. Lastly, Somalia has a maximum natural hazard exposure score of 5 . This means the country is at severe risk of natural hazard exposure.</t>
   </si>
   <si>
     <t xml:space="preserve">ETR Domains</t>
@@ -448,13 +448,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -531,7 +531,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>545.413</v>
+        <v>509.053</v>
       </c>
     </row>
     <row r="20">
@@ -539,7 +539,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>16.894</v>
+        <v>47.324</v>
       </c>
     </row>
     <row r="21">
@@ -547,7 +547,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>26207976</v>
+        <v>17597512</v>
       </c>
     </row>
   </sheetData>

--- a/04_outputs/country_report.xlsx
+++ b/04_outputs/country_report.xlsx
@@ -29,19 +29,19 @@
     <t xml:space="preserve">ETR</t>
   </si>
   <si>
-    <t xml:space="preserve">SOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Very High Risk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2023 , Somalia had an overall score of 3 in the GLOBAL PEACE INDEX. This represents an improvement from the previous year. It is currently ranked 42 th in the region. This was driven by an improvement in the ongoing conflict domain. In the last five years Somalia , has seen an overall improvement in Global Peace.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2022 , Somalia had an overall score of 4 in the POSITIVE PEACE REPORT. This represents a deterioration from the previous year. It is currently ranked 43 th in the region. This was driven by a deterioration in the Good Relations with Neighbours Pillar. In the last five years Somalia has seen an overall improvement in Positive Peace.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">According to the latest edition of the Ecological Threat Report, Somalia had a demographic pressure score of 5 . This means that Somalia is at severe risk of population increases by 2050. Somalia is also at severe risk of water insecurity, having a maximum score of 5 . Somalia has a maximum food insecurity score of 5 . This means the country is in severe risk of food insecurity. Lastly, Somalia has a maximum natural hazard exposure score of 5 . This means the country is at severe risk of natural hazard exposure.</t>
+    <t xml:space="preserve">BFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2023 , Burkina Faso had an overall score of 3 in the GLOBAL PEACE INDEX. This represents a deterioration from the previous year. It is currently ranked 38 th in the region. This was driven by a deterioration in the safety and security domian. In the last five years, Burkina Faso , has seen an overall deterioration in Global Peace.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2022 , Burkina Faso had an overall score of 4 in the POSITIVE PEACE REPORT. This represents a deterioration from the previous year. It is currently ranked 17 th in the region. This was driven by a deterioration in the Well-Functioning Government Pillar. In the last five years Burkina Faso has seen an overall deterioration in Positive Peace.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">According to the latest edition of the Ecological Threat Report, Burkina Faso had a demographic pressure score of 5 . This means that Burkina Faso is at severe risk of population increases by 2050. Burkina Faso is also at severe risk of water insecurity, having a maximum score of 5 . Burkina Faso has a maximum food insecurity score of 5 . This means the country is in severe risk of food insecurity. Lastly, Burkina Faso has a maximum natural hazard exposure score of 4 . This means the country is at high risk of natural hazard exposure.</t>
   </si>
   <si>
     <t xml:space="preserve">ETR Domains</t>
@@ -448,13 +448,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -531,7 +531,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>509.053</v>
+        <v>732.57</v>
       </c>
     </row>
     <row r="20">
@@ -539,7 +539,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>47.324</v>
+        <v>31.877</v>
       </c>
     </row>
     <row r="21">
@@ -547,7 +547,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>17597512</v>
+        <v>22673762</v>
       </c>
     </row>
   </sheetData>
